--- a/config_5.25/activity_exchange_server.xlsx
+++ b/config_5.25/activity_exchange_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -1577,19 +1577,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1648,10 +1641,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1670,15 +1663,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1686,6 +1671,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1700,23 +1692,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1724,36 +1700,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1768,8 +1714,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1785,7 +1778,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1797,7 +1790,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1848,7 +1841,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1860,25 +1877,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1890,31 +1889,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1932,13 +1931,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1950,61 +1979,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2017,12 +1998,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2062,17 +2037,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2093,36 +2064,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2145,6 +2096,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2159,16 +2125,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2177,144 +2152,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2323,10 +2298,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2341,67 +2316,61 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2417,29 +2386,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2448,19 +2414,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2785,28 +2751,28 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I63" sqref="I63"/>
+      <selection pane="bottomLeft" activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="37" customWidth="1"/>
-    <col min="2" max="2" width="24.375" style="37" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="37" customWidth="1"/>
-    <col min="4" max="6" width="18.625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="7.875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="24.375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="35" customWidth="1"/>
+    <col min="4" max="6" width="18.625" style="35" customWidth="1"/>
     <col min="7" max="7" width="53.375" customWidth="1"/>
     <col min="8" max="8" width="27.25" style="9" customWidth="1"/>
     <col min="9" max="9" width="23.5" customWidth="1"/>
     <col min="10" max="10" width="19.375" style="9" customWidth="1"/>
-    <col min="11" max="11" width="13.375" style="37" customWidth="1"/>
-    <col min="12" max="12" width="33" style="37" customWidth="1"/>
-    <col min="13" max="14" width="20.375" style="37" customWidth="1"/>
-    <col min="15" max="15" width="18.625" style="37" customWidth="1"/>
-    <col min="16" max="16" width="28.875" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="11" style="37"/>
+    <col min="11" max="11" width="13.375" style="35" customWidth="1"/>
+    <col min="12" max="12" width="33" style="35" customWidth="1"/>
+    <col min="13" max="14" width="20.375" style="35" customWidth="1"/>
+    <col min="15" max="15" width="18.625" style="35" customWidth="1"/>
+    <col min="16" max="16" width="28.875" style="35" customWidth="1"/>
+    <col min="17" max="16384" width="11" style="35"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:12">
@@ -2822,22 +2788,22 @@
       <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="36" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="12" t="s">
@@ -2877,11 +2843,11 @@
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="L2" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
     </row>
     <row r="3" ht="16.5" spans="1:16">
       <c r="A3" s="1">
@@ -2913,9 +2879,9 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
+      <c r="L3" s="46"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
     </row>
     <row r="4" ht="16.5" spans="1:16">
       <c r="A4" s="1">
@@ -2947,8 +2913,8 @@
       <c r="K4" s="1">
         <v>0</v>
       </c>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
@@ -2977,7 +2943,7 @@
       <c r="J5" s="21">
         <v>4</v>
       </c>
-      <c r="K5" s="37">
+      <c r="K5" s="35">
         <v>0</v>
       </c>
     </row>
@@ -3008,11 +2974,11 @@
       <c r="J6" s="21">
         <v>5</v>
       </c>
-      <c r="K6" s="37">
+      <c r="K6" s="35">
         <v>0</v>
       </c>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
     </row>
     <row r="7" ht="16.5" spans="1:16">
       <c r="A7" s="1">
@@ -3041,13 +3007,13 @@
       <c r="J7" s="21">
         <v>6</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="35">
         <v>0</v>
       </c>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-    </row>
-    <row r="8" s="33" customFormat="1" ht="16.5" spans="1:16">
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+    </row>
+    <row r="8" s="31" customFormat="1" ht="16.5" spans="1:16">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -3074,13 +3040,13 @@
       <c r="J8" s="21">
         <v>7</v>
       </c>
-      <c r="K8" s="33">
+      <c r="K8" s="31">
         <v>0</v>
       </c>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-    </row>
-    <row r="9" s="33" customFormat="1" ht="16.5" spans="1:16">
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+    </row>
+    <row r="9" s="31" customFormat="1" ht="16.5" spans="1:16">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -3107,13 +3073,13 @@
       <c r="J9" s="21">
         <v>8</v>
       </c>
-      <c r="K9" s="33">
+      <c r="K9" s="31">
         <v>0</v>
       </c>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-    </row>
-    <row r="10" s="33" customFormat="1" ht="16.5" spans="1:16">
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+    </row>
+    <row r="10" s="31" customFormat="1" ht="16.5" spans="1:16">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -3140,13 +3106,13 @@
       <c r="J10" s="21">
         <v>9</v>
       </c>
-      <c r="K10" s="33">
+      <c r="K10" s="31">
         <v>0</v>
       </c>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-    </row>
-    <row r="11" s="33" customFormat="1" ht="16.5" spans="1:16">
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+    </row>
+    <row r="11" s="31" customFormat="1" ht="16.5" spans="1:16">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -3173,23 +3139,23 @@
       <c r="J11" s="21">
         <v>10</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="31">
         <v>0</v>
       </c>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-    </row>
-    <row r="12" s="33" customFormat="1" ht="16.5" spans="1:16">
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+    </row>
+    <row r="12" s="31" customFormat="1" ht="16.5" spans="1:16">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="37">
         <v>1609200000</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="37">
         <v>1609775999</v>
       </c>
       <c r="E12" s="5"/>
@@ -3206,23 +3172,23 @@
       <c r="J12" s="21">
         <v>11</v>
       </c>
-      <c r="K12" s="33">
+      <c r="K12" s="31">
         <v>0</v>
       </c>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-    </row>
-    <row r="13" s="33" customFormat="1" ht="16.5" spans="1:16">
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+    </row>
+    <row r="13" s="31" customFormat="1" ht="16.5" spans="1:16">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="37">
         <v>1609200000</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="37">
         <v>1609775999</v>
       </c>
       <c r="E13" s="5"/>
@@ -3239,23 +3205,23 @@
       <c r="J13" s="21">
         <v>12</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="31">
         <v>0</v>
       </c>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-    </row>
-    <row r="14" s="33" customFormat="1" ht="16.5" spans="1:16">
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+    </row>
+    <row r="14" s="31" customFormat="1" ht="16.5" spans="1:16">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="37">
         <v>1609200000</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="37">
         <v>1609775999</v>
       </c>
       <c r="E14" s="5"/>
@@ -3272,23 +3238,23 @@
       <c r="J14" s="21">
         <v>13</v>
       </c>
-      <c r="K14" s="33">
+      <c r="K14" s="31">
         <v>0</v>
       </c>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-    </row>
-    <row r="15" s="33" customFormat="1" ht="16.5" spans="1:16">
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+    </row>
+    <row r="15" s="31" customFormat="1" ht="16.5" spans="1:16">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="37">
         <v>1609200000</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="37">
         <v>1609775999</v>
       </c>
       <c r="E15" s="5"/>
@@ -3305,23 +3271,23 @@
       <c r="J15" s="21">
         <v>14</v>
       </c>
-      <c r="K15" s="33">
+      <c r="K15" s="31">
         <v>0</v>
       </c>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-    </row>
-    <row r="16" s="33" customFormat="1" ht="16.5" spans="1:16">
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+    </row>
+    <row r="16" s="31" customFormat="1" ht="16.5" spans="1:16">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="37">
         <v>1609804800</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="37">
         <v>1610380799</v>
       </c>
       <c r="E16" s="5"/>
@@ -3338,23 +3304,23 @@
       <c r="J16" s="5">
         <v>15</v>
       </c>
-      <c r="K16" s="33">
+      <c r="K16" s="31">
         <v>0</v>
       </c>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-    </row>
-    <row r="17" s="33" customFormat="1" ht="16.5" spans="1:16">
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+    </row>
+    <row r="17" s="31" customFormat="1" ht="16.5" spans="1:16">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="37">
         <v>1609804800</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="37">
         <v>1610380799</v>
       </c>
       <c r="E17" s="5"/>
@@ -3371,23 +3337,23 @@
       <c r="J17" s="5">
         <v>16</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="31">
         <v>0</v>
       </c>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-    </row>
-    <row r="18" s="34" customFormat="1" spans="1:11">
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+    </row>
+    <row r="18" s="32" customFormat="1" spans="1:11">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="38">
         <v>1610409600</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="38">
         <v>1610985599</v>
       </c>
       <c r="G18" s="19" t="s">
@@ -3402,15 +3368,15 @@
       <c r="J18" s="21">
         <v>17</v>
       </c>
-      <c r="K18" s="33">
+      <c r="K18" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="33" customFormat="1" spans="1:11">
+    <row r="19" s="31" customFormat="1" spans="1:11">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="19" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="5">
@@ -3433,11 +3399,11 @@
       <c r="J19" s="21">
         <v>18</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="34" customFormat="1" spans="1:11">
+    <row r="20" s="32" customFormat="1" spans="1:11">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -3462,11 +3428,11 @@
       <c r="J20" s="21">
         <v>19</v>
       </c>
-      <c r="K20" s="33">
+      <c r="K20" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="33" customFormat="1" spans="1:11">
+    <row r="21" s="31" customFormat="1" spans="1:11">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -3493,11 +3459,11 @@
       <c r="J21" s="21">
         <v>20</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="33" customFormat="1" ht="16.5" spans="1:16">
+    <row r="22" s="31" customFormat="1" ht="16.5" spans="1:16">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -3512,23 +3478,23 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="42" t="s">
+      <c r="G22" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="40">
-        <v>1</v>
-      </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="40">
+      <c r="H22" s="38">
+        <v>1</v>
+      </c>
+      <c r="I22" s="32"/>
+      <c r="J22" s="38">
         <v>21</v>
       </c>
-      <c r="K22" s="33">
+      <c r="K22" s="31">
         <v>0</v>
       </c>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-    </row>
-    <row r="23" s="33" customFormat="1" ht="16.5" spans="1:16">
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+    </row>
+    <row r="23" s="31" customFormat="1" ht="16.5" spans="1:16">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -3543,23 +3509,23 @@
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="42" t="s">
+      <c r="G23" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="H23" s="40">
-        <v>1</v>
-      </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="40">
+      <c r="H23" s="38">
+        <v>1</v>
+      </c>
+      <c r="I23" s="32"/>
+      <c r="J23" s="38">
         <v>22</v>
       </c>
-      <c r="K23" s="33">
+      <c r="K23" s="31">
         <v>0</v>
       </c>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-    </row>
-    <row r="24" s="33" customFormat="1" ht="16.5" spans="1:16">
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+    </row>
+    <row r="24" s="31" customFormat="1" ht="16.5" spans="1:16">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -3574,23 +3540,23 @@
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="42" t="s">
+      <c r="G24" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="40">
-        <v>1</v>
-      </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="40">
+      <c r="H24" s="38">
+        <v>1</v>
+      </c>
+      <c r="I24" s="32"/>
+      <c r="J24" s="38">
         <v>23</v>
       </c>
-      <c r="K24" s="33">
+      <c r="K24" s="31">
         <v>0</v>
       </c>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-    </row>
-    <row r="25" s="33" customFormat="1" spans="1:11">
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+    </row>
+    <row r="25" s="31" customFormat="1" spans="1:11">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -3603,21 +3569,21 @@
       <c r="D25" s="5">
         <v>1611590399</v>
       </c>
-      <c r="G25" s="42" t="s">
+      <c r="G25" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H25" s="40">
-        <v>1</v>
-      </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="40">
+      <c r="H25" s="38">
+        <v>1</v>
+      </c>
+      <c r="I25" s="32"/>
+      <c r="J25" s="38">
         <v>24</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="33" customFormat="1" spans="1:11">
+    <row r="26" s="31" customFormat="1" spans="1:11">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -3630,21 +3596,21 @@
       <c r="D26" s="5">
         <v>1611590399</v>
       </c>
-      <c r="G26" s="42" t="s">
+      <c r="G26" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="40">
-        <v>1</v>
-      </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="40">
+      <c r="H26" s="38">
+        <v>1</v>
+      </c>
+      <c r="I26" s="32"/>
+      <c r="J26" s="38">
         <v>25</v>
       </c>
-      <c r="K26" s="33">
+      <c r="K26" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="33" customFormat="1" spans="1:11">
+    <row r="27" s="31" customFormat="1" spans="1:11">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -3659,21 +3625,21 @@
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="42" t="s">
+      <c r="G27" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="40">
-        <v>1</v>
-      </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="40">
+      <c r="H27" s="38">
+        <v>1</v>
+      </c>
+      <c r="I27" s="32"/>
+      <c r="J27" s="38">
         <v>26</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="33" customFormat="1" spans="1:11">
+    <row r="28" s="31" customFormat="1" spans="1:11">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -3688,21 +3654,21 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="42" t="s">
+      <c r="G28" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="40">
-        <v>1</v>
-      </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="40">
+      <c r="H28" s="38">
+        <v>1</v>
+      </c>
+      <c r="I28" s="32"/>
+      <c r="J28" s="38">
         <v>27</v>
       </c>
-      <c r="K28" s="33">
+      <c r="K28" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="29" s="33" customFormat="1" spans="1:11">
+    <row r="29" s="31" customFormat="1" spans="1:11">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -3717,21 +3683,21 @@
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="42" t="s">
+      <c r="G29" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="H29" s="40">
-        <v>1</v>
-      </c>
-      <c r="I29" s="34"/>
-      <c r="J29" s="40">
+      <c r="H29" s="38">
+        <v>1</v>
+      </c>
+      <c r="I29" s="32"/>
+      <c r="J29" s="38">
         <v>28</v>
       </c>
-      <c r="K29" s="33">
+      <c r="K29" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="30" s="33" customFormat="1" spans="1:11">
+    <row r="30" s="31" customFormat="1" spans="1:11">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -3746,21 +3712,21 @@
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="42" t="s">
+      <c r="G30" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="40">
-        <v>1</v>
-      </c>
-      <c r="I30" s="34"/>
-      <c r="J30" s="40">
+      <c r="H30" s="38">
+        <v>1</v>
+      </c>
+      <c r="I30" s="32"/>
+      <c r="J30" s="38">
         <v>29</v>
       </c>
-      <c r="K30" s="33">
+      <c r="K30" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="31" s="34" customFormat="1" spans="1:11">
+    <row r="31" s="32" customFormat="1" spans="1:11">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -3785,11 +3751,11 @@
       <c r="J31" s="21">
         <v>30</v>
       </c>
-      <c r="K31" s="33">
+      <c r="K31" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" s="33" customFormat="1" spans="1:11">
+    <row r="32" s="31" customFormat="1" spans="1:11">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -3816,11 +3782,11 @@
       <c r="J32" s="21">
         <v>31</v>
       </c>
-      <c r="K32" s="33">
+      <c r="K32" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="33" s="34" customFormat="1" spans="1:11">
+    <row r="33" s="32" customFormat="1" spans="1:11">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -3845,11 +3811,11 @@
       <c r="J33" s="21">
         <v>32</v>
       </c>
-      <c r="K33" s="33">
+      <c r="K33" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="34" s="33" customFormat="1" spans="1:11">
+    <row r="34" s="31" customFormat="1" spans="1:11">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -3876,15 +3842,15 @@
       <c r="J34" s="21">
         <v>33</v>
       </c>
-      <c r="K34" s="33">
+      <c r="K34" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="35" s="33" customFormat="1" spans="1:11">
+    <row r="35" s="31" customFormat="1" spans="1:11">
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="31" t="s">
         <v>58</v>
       </c>
       <c r="C35" s="5">
@@ -3895,10 +3861,10 @@
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="42" t="s">
+      <c r="G35" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="H35" s="40">
+      <c r="H35" s="38">
         <v>1</v>
       </c>
       <c r="I35" s="5">
@@ -3907,15 +3873,15 @@
       <c r="J35" s="21">
         <v>34</v>
       </c>
-      <c r="K35" s="33">
+      <c r="K35" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="36" s="33" customFormat="1" spans="1:11">
+    <row r="36" s="31" customFormat="1" spans="1:11">
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="40" t="s">
         <v>60</v>
       </c>
       <c r="C36" s="5">
@@ -3926,10 +3892,10 @@
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="42" t="s">
+      <c r="G36" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="H36" s="40">
+      <c r="H36" s="38">
         <v>1</v>
       </c>
       <c r="I36" s="5">
@@ -3938,11 +3904,11 @@
       <c r="J36" s="21">
         <v>35</v>
       </c>
-      <c r="K36" s="33">
+      <c r="K36" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="37" s="33" customFormat="1" ht="16.5" spans="1:16">
+    <row r="37" s="31" customFormat="1" ht="16.5" spans="1:16">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -3957,23 +3923,23 @@
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="42" t="s">
+      <c r="G37" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="H37" s="40">
-        <v>1</v>
-      </c>
-      <c r="I37" s="34"/>
-      <c r="J37" s="40">
+      <c r="H37" s="38">
+        <v>1</v>
+      </c>
+      <c r="I37" s="32"/>
+      <c r="J37" s="38">
         <v>36</v>
       </c>
-      <c r="K37" s="33">
+      <c r="K37" s="31">
         <v>0</v>
       </c>
-      <c r="O37" s="51"/>
-      <c r="P37" s="51"/>
-    </row>
-    <row r="38" s="33" customFormat="1" ht="16.5" spans="1:16">
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+    </row>
+    <row r="38" s="31" customFormat="1" ht="16.5" spans="1:16">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -3988,23 +3954,23 @@
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="42" t="s">
+      <c r="G38" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="H38" s="40">
-        <v>1</v>
-      </c>
-      <c r="I38" s="34"/>
-      <c r="J38" s="40">
+      <c r="H38" s="38">
+        <v>1</v>
+      </c>
+      <c r="I38" s="32"/>
+      <c r="J38" s="38">
         <v>37</v>
       </c>
-      <c r="K38" s="33">
+      <c r="K38" s="31">
         <v>0</v>
       </c>
-      <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
-    </row>
-    <row r="39" s="33" customFormat="1" ht="16.5" spans="1:16">
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+    </row>
+    <row r="39" s="31" customFormat="1" ht="16.5" spans="1:16">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -4019,27 +3985,27 @@
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="42" t="s">
+      <c r="G39" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="40">
-        <v>1</v>
-      </c>
-      <c r="I39" s="34"/>
-      <c r="J39" s="40">
+      <c r="H39" s="38">
+        <v>1</v>
+      </c>
+      <c r="I39" s="32"/>
+      <c r="J39" s="38">
         <v>38</v>
       </c>
-      <c r="K39" s="33">
+      <c r="K39" s="31">
         <v>0</v>
       </c>
-      <c r="O39" s="51"/>
-      <c r="P39" s="51"/>
-    </row>
-    <row r="40" s="33" customFormat="1" spans="1:11">
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+    </row>
+    <row r="40" s="31" customFormat="1" spans="1:11">
       <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="40" t="s">
         <v>64</v>
       </c>
       <c r="C40" s="5">
@@ -4053,7 +4019,7 @@
       <c r="G40" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="40">
+      <c r="H40" s="38">
         <v>1</v>
       </c>
       <c r="I40" s="5">
@@ -4062,15 +4028,15 @@
       <c r="J40" s="21">
         <v>39</v>
       </c>
-      <c r="K40" s="33">
+      <c r="K40" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="41" s="33" customFormat="1" spans="1:11">
+    <row r="41" s="31" customFormat="1" spans="1:11">
       <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="40" t="s">
         <v>66</v>
       </c>
       <c r="C41" s="5">
@@ -4084,7 +4050,7 @@
       <c r="G41" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H41" s="40">
+      <c r="H41" s="38">
         <v>1</v>
       </c>
       <c r="I41" s="5">
@@ -4093,15 +4059,15 @@
       <c r="J41" s="21">
         <v>40</v>
       </c>
-      <c r="K41" s="33">
+      <c r="K41" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="42" s="33" customFormat="1" spans="1:11">
+    <row r="42" s="31" customFormat="1" spans="1:11">
       <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="40" t="s">
         <v>67</v>
       </c>
       <c r="C42" s="5">
@@ -4115,7 +4081,7 @@
       <c r="G42" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="40">
+      <c r="H42" s="38">
         <v>1</v>
       </c>
       <c r="I42" s="5">
@@ -4124,15 +4090,15 @@
       <c r="J42" s="21">
         <v>41</v>
       </c>
-      <c r="K42" s="33">
+      <c r="K42" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="43" s="33" customFormat="1" spans="1:11">
+    <row r="43" s="31" customFormat="1" spans="1:11">
       <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="40" t="s">
         <v>68</v>
       </c>
       <c r="C43" s="5">
@@ -4146,7 +4112,7 @@
       <c r="G43" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H43" s="40">
+      <c r="H43" s="38">
         <v>1</v>
       </c>
       <c r="I43" s="5">
@@ -4155,73 +4121,73 @@
       <c r="J43" s="21">
         <v>42</v>
       </c>
-      <c r="K43" s="33">
+      <c r="K43" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="44" s="35" customFormat="1" spans="1:11">
-      <c r="A44" s="44">
+    <row r="44" s="33" customFormat="1" spans="1:11">
+      <c r="A44" s="41">
         <v>43</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="44">
+      <c r="C44" s="41">
         <v>1615248000</v>
       </c>
-      <c r="D44" s="44">
+      <c r="D44" s="41">
         <v>2552233600</v>
       </c>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="46" t="s">
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="H44" s="47">
-        <v>1</v>
-      </c>
-      <c r="I44" s="44"/>
-      <c r="J44" s="52">
+      <c r="H44" s="44">
+        <v>1</v>
+      </c>
+      <c r="I44" s="41"/>
+      <c r="J44" s="49">
         <v>43</v>
       </c>
-      <c r="K44" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" s="35" customFormat="1" spans="1:11">
-      <c r="A45" s="44">
+      <c r="K44" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" s="33" customFormat="1" spans="1:11">
+      <c r="A45" s="41">
         <v>44</v>
       </c>
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="44">
+      <c r="C45" s="41">
         <v>1615248000</v>
       </c>
-      <c r="D45" s="44">
+      <c r="D45" s="41">
         <v>2552233600</v>
       </c>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="46" t="s">
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="H45" s="47">
-        <v>1</v>
-      </c>
-      <c r="I45" s="44"/>
-      <c r="J45" s="52">
+      <c r="H45" s="44">
+        <v>1</v>
+      </c>
+      <c r="I45" s="41"/>
+      <c r="J45" s="49">
         <v>44</v>
       </c>
-      <c r="K45" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" s="33" customFormat="1" spans="1:11">
+      <c r="K45" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" s="31" customFormat="1" spans="1:11">
       <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="40" t="s">
         <v>72</v>
       </c>
       <c r="C46" s="5">
@@ -4235,7 +4201,7 @@
       <c r="G46" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H46" s="40">
+      <c r="H46" s="38">
         <v>1</v>
       </c>
       <c r="I46" s="5">
@@ -4244,15 +4210,15 @@
       <c r="J46" s="21">
         <v>45</v>
       </c>
-      <c r="K46" s="33">
+      <c r="K46" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="47" s="33" customFormat="1" spans="1:11">
+    <row r="47" s="31" customFormat="1" spans="1:11">
       <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="40" t="s">
         <v>73</v>
       </c>
       <c r="C47" s="5">
@@ -4266,7 +4232,7 @@
       <c r="G47" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H47" s="40">
+      <c r="H47" s="38">
         <v>1</v>
       </c>
       <c r="I47" s="5">
@@ -4275,15 +4241,15 @@
       <c r="J47" s="21">
         <v>46</v>
       </c>
-      <c r="K47" s="33">
+      <c r="K47" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="48" s="33" customFormat="1" spans="1:11">
+    <row r="48" s="31" customFormat="1" spans="1:11">
       <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="40" t="s">
         <v>37</v>
       </c>
       <c r="C48" s="5">
@@ -4297,7 +4263,7 @@
       <c r="G48" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H48" s="40">
+      <c r="H48" s="38">
         <v>1</v>
       </c>
       <c r="I48" s="5">
@@ -4306,15 +4272,15 @@
       <c r="J48" s="21">
         <v>47</v>
       </c>
-      <c r="K48" s="33">
+      <c r="K48" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="49" s="33" customFormat="1" spans="1:11">
+    <row r="49" s="31" customFormat="1" spans="1:11">
       <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="40" t="s">
         <v>74</v>
       </c>
       <c r="C49" s="5">
@@ -4328,7 +4294,7 @@
       <c r="G49" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H49" s="40">
+      <c r="H49" s="38">
         <v>1</v>
       </c>
       <c r="I49" s="5">
@@ -4337,15 +4303,15 @@
       <c r="J49" s="21">
         <v>48</v>
       </c>
-      <c r="K49" s="33">
+      <c r="K49" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="50" s="33" customFormat="1" spans="1:11">
+    <row r="50" s="31" customFormat="1" spans="1:11">
       <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="40" t="s">
         <v>37</v>
       </c>
       <c r="C50" s="5">
@@ -4359,7 +4325,7 @@
       <c r="G50" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H50" s="40">
+      <c r="H50" s="38">
         <v>1</v>
       </c>
       <c r="I50" s="5">
@@ -4368,15 +4334,15 @@
       <c r="J50" s="21">
         <v>49</v>
       </c>
-      <c r="K50" s="33">
+      <c r="K50" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="51" s="33" customFormat="1" spans="1:11">
+    <row r="51" s="31" customFormat="1" spans="1:11">
       <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="43" t="s">
+      <c r="B51" s="40" t="s">
         <v>74</v>
       </c>
       <c r="C51" s="5">
@@ -4390,7 +4356,7 @@
       <c r="G51" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H51" s="40">
+      <c r="H51" s="38">
         <v>1</v>
       </c>
       <c r="I51" s="5">
@@ -4399,21 +4365,21 @@
       <c r="J51" s="21">
         <v>50</v>
       </c>
-      <c r="K51" s="33">
+      <c r="K51" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="37">
+      <c r="A52" s="35">
         <v>51</v>
       </c>
-      <c r="B52" s="37" t="s">
+      <c r="B52" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="37">
+      <c r="C52" s="35">
         <v>1617062400</v>
       </c>
-      <c r="D52" s="37">
+      <c r="D52" s="35">
         <v>1617638399</v>
       </c>
       <c r="G52" s="19" t="s">
@@ -4428,21 +4394,21 @@
       <c r="J52" s="9">
         <v>51</v>
       </c>
-      <c r="K52" s="37">
+      <c r="K52" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="37">
+      <c r="A53" s="35">
         <v>52</v>
       </c>
-      <c r="B53" s="37" t="s">
+      <c r="B53" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="37">
+      <c r="C53" s="35">
         <v>1617062400</v>
       </c>
-      <c r="D53" s="37">
+      <c r="D53" s="35">
         <v>1617638399</v>
       </c>
       <c r="G53" s="19" t="s">
@@ -4457,21 +4423,21 @@
       <c r="J53" s="9">
         <v>52</v>
       </c>
-      <c r="K53" s="37">
+      <c r="K53" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="37">
+      <c r="A54" s="35">
         <v>53</v>
       </c>
-      <c r="B54" s="37" t="s">
+      <c r="B54" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="37">
+      <c r="C54" s="35">
         <v>1618272000</v>
       </c>
-      <c r="D54" s="37">
+      <c r="D54" s="35">
         <v>1618847999</v>
       </c>
       <c r="G54" s="19" t="s">
@@ -4486,50 +4452,50 @@
       <c r="J54" s="9">
         <v>53</v>
       </c>
-      <c r="K54" s="37">
+      <c r="K54" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="55" s="36" customFormat="1" spans="1:11">
-      <c r="A55" s="36">
+    <row r="55" s="34" customFormat="1" spans="1:11">
+      <c r="A55" s="34">
         <v>54</v>
       </c>
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="36">
+      <c r="C55" s="34">
         <v>1619481600</v>
       </c>
-      <c r="D55" s="36">
+      <c r="D55" s="34">
         <v>1620662399</v>
       </c>
       <c r="G55" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="H55" s="48">
+      <c r="H55" s="45">
         <v>1</v>
       </c>
       <c r="I55" s="11">
         <v>40</v>
       </c>
-      <c r="J55" s="48">
+      <c r="J55" s="45">
         <v>54</v>
       </c>
-      <c r="K55" s="36">
+      <c r="K55" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="36">
+      <c r="A56" s="34">
         <v>55</v>
       </c>
-      <c r="B56" s="37" t="s">
+      <c r="B56" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="37">
+      <c r="C56" s="35">
         <v>1621900800</v>
       </c>
-      <c r="D56" s="37">
+      <c r="D56" s="35">
         <v>1622476799</v>
       </c>
       <c r="G56" s="27" t="s">
@@ -4544,7 +4510,7 @@
       <c r="J56" s="9">
         <v>55</v>
       </c>
-      <c r="K56" s="37">
+      <c r="K56" s="35">
         <v>1</v>
       </c>
     </row>
@@ -4739,10 +4705,10 @@
       <c r="C14" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" s="5" customFormat="1" spans="1:3">
       <c r="A15" s="5">
@@ -4765,10 +4731,10 @@
       <c r="C16" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" s="5" customFormat="1" spans="1:3">
       <c r="A17" s="5">
@@ -4979,25 +4945,25 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" s="30" customFormat="1" spans="1:3">
-      <c r="A36" s="30">
+    <row r="36" s="28" customFormat="1" spans="1:3">
+      <c r="A36" s="28">
         <v>35</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="30" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="37" s="30" customFormat="1" spans="1:3">
-      <c r="A37" s="30">
+    <row r="37" s="28" customFormat="1" spans="1:3">
+      <c r="A37" s="28">
         <v>36</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="30" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5220,7 +5186,7 @@
       <c r="F5" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="50" t="s">
         <v>157</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -5240,7 +5206,7 @@
       <c r="F6" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="50" t="s">
         <v>158</v>
       </c>
       <c r="H6" s="6" t="s">
@@ -5263,7 +5229,7 @@
       <c r="F7" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="50" t="s">
         <v>159</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -13938,7 +13904,6 @@
       <c r="D346" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="E346" s="1"/>
       <c r="F346" s="27" t="s">
         <v>161</v>
       </c>
@@ -13965,7 +13930,6 @@
       <c r="D347" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="E347" s="1"/>
       <c r="F347" s="27" t="s">
         <v>161</v>
       </c>
@@ -13992,7 +13956,6 @@
       <c r="D348" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="E348" s="1"/>
       <c r="F348" s="27" t="s">
         <v>156</v>
       </c>
@@ -14016,7 +13979,6 @@
       <c r="D349" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="E349" s="1"/>
       <c r="F349" s="27" t="s">
         <v>161</v>
       </c>
@@ -14066,7 +14028,6 @@
       <c r="D351" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="E351" s="1"/>
       <c r="F351" s="27" t="s">
         <v>161</v>
       </c>
@@ -14093,7 +14054,7 @@
       <c r="D352" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="F352" s="28" t="s">
+      <c r="F352" s="22" t="s">
         <v>328</v>
       </c>
       <c r="G352" s="6" t="s">
@@ -14119,7 +14080,6 @@
       <c r="D353" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="E353" s="1"/>
       <c r="F353" s="27" t="s">
         <v>161</v>
       </c>
@@ -14146,7 +14106,7 @@
       <c r="D354" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="F354" s="29" t="s">
+      <c r="F354" s="19" t="s">
         <v>329</v>
       </c>
       <c r="G354" s="6" t="s">
@@ -14172,7 +14132,6 @@
       <c r="D355" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="E355" s="1"/>
       <c r="F355" s="27" t="s">
         <v>161</v>
       </c>
@@ -14300,10 +14259,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -14496,66 +14455,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/config_5.25/activity_exchange_server.xlsx
+++ b/config_5.25/activity_exchange_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="343">
   <si>
     <t>id|</t>
   </si>
@@ -1511,7 +1511,7 @@
     <t>prop_tiny_game_coin</t>
   </si>
   <si>
-    <t>fish_coin</t>
+    <t>3000,</t>
   </si>
   <si>
     <t>200,</t>
@@ -1640,11 +1640,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1657,35 +1680,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1706,34 +1700,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1746,26 +1732,32 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1777,8 +1769,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1835,7 +1835,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1847,7 +1859,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1859,7 +1889,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1871,25 +1931,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1901,43 +1949,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1949,31 +1961,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1985,7 +1979,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1998,6 +1992,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2037,32 +2037,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2087,15 +2061,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2107,6 +2072,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2128,9 +2126,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2140,10 +2140,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2152,133 +2152,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -5034,12 +5034,12 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M355"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B336" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B327" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A346" sqref="A346"/>
+      <selection pane="bottomRight" activeCell="F359" sqref="F359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -14107,13 +14107,13 @@
         <v>306</v>
       </c>
       <c r="F354" s="19" t="s">
-        <v>329</v>
+        <v>266</v>
       </c>
       <c r="G354" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="H354" s="1">
-        <v>3000</v>
+      <c r="H354" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="J354" s="1">
         <v>5</v>
@@ -14261,7 +14261,7 @@
   <sheetPr/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
